--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dkk4-Kremen1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Dkk4</t>
+  </si>
+  <si>
+    <t>Kremen1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Dkk4</t>
-  </si>
-  <si>
-    <t>Kremen1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.022063</v>
       </c>
       <c r="I2">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.4984935</v>
+        <v>5.187993000000001</v>
       </c>
       <c r="N2">
-        <v>12.996987</v>
+        <v>10.375986</v>
       </c>
       <c r="O2">
-        <v>0.136717006960842</v>
+        <v>0.2055237229286108</v>
       </c>
       <c r="P2">
-        <v>0.1171455833533661</v>
+        <v>0.1647366551777407</v>
       </c>
       <c r="Q2">
-        <v>0.0477920873635</v>
+        <v>0.038154229853</v>
       </c>
       <c r="R2">
-        <v>0.286752524181</v>
+        <v>0.228925379118</v>
       </c>
       <c r="S2">
-        <v>0.0177057520138121</v>
+        <v>0.2055237229286108</v>
       </c>
       <c r="T2">
-        <v>0.01517112387460418</v>
+        <v>0.1647366551777407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.022063</v>
       </c>
       <c r="I3">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.026004999999999</v>
+        <v>7.026005</v>
       </c>
       <c r="N3">
         <v>21.078015</v>
       </c>
       <c r="O3">
-        <v>0.1478149319518301</v>
+        <v>0.2783370573003924</v>
       </c>
       <c r="P3">
-        <v>0.189982213808939</v>
+        <v>0.3346498047401226</v>
       </c>
       <c r="Q3">
-        <v>0.05167158277166665</v>
+        <v>0.05167158277166667</v>
       </c>
       <c r="R3">
-        <v>0.4650442449449999</v>
+        <v>0.465044244945</v>
       </c>
       <c r="S3">
-        <v>0.01914300632566669</v>
+        <v>0.2783370573003924</v>
       </c>
       <c r="T3">
-        <v>0.02460394679134209</v>
+        <v>0.3346498047401226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.022063</v>
       </c>
       <c r="I4">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.048527</v>
+        <v>2.488866666666667</v>
       </c>
       <c r="N4">
-        <v>6.145581</v>
+        <v>7.4666</v>
       </c>
       <c r="O4">
-        <v>0.04309744714193724</v>
+        <v>0.09859711514766022</v>
       </c>
       <c r="P4">
-        <v>0.05539188977340388</v>
+        <v>0.118545139666738</v>
       </c>
       <c r="Q4">
-        <v>0.01506555040033333</v>
+        <v>0.01830395508888889</v>
       </c>
       <c r="R4">
-        <v>0.135589953603</v>
+        <v>0.1647355958</v>
       </c>
       <c r="S4">
-        <v>0.005581402990646748</v>
+        <v>0.09859711514766022</v>
       </c>
       <c r="T4">
-        <v>0.007173614210156077</v>
+        <v>0.118545139666738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -735,10 +735,10 @@
         <v>0.022063</v>
       </c>
       <c r="I5">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.151532</v>
+        <v>7.555099</v>
       </c>
       <c r="N5">
-        <v>50.303064</v>
+        <v>15.110198</v>
       </c>
       <c r="O5">
-        <v>0.5291445125735433</v>
+        <v>0.299297256872595</v>
       </c>
       <c r="P5">
-        <v>0.453395989142846</v>
+        <v>0.2399004275442726</v>
       </c>
       <c r="Q5">
-        <v>0.184972750172</v>
+        <v>0.05556271641233333</v>
       </c>
       <c r="R5">
-        <v>1.109836501032</v>
+        <v>0.333376298474</v>
       </c>
       <c r="S5">
-        <v>0.06852769620519886</v>
+        <v>0.299297256872595</v>
       </c>
       <c r="T5">
-        <v>0.05871776398761819</v>
+        <v>0.2399004275442726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.022063</v>
       </c>
       <c r="I6">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.761096</v>
+        <v>0.8052820000000001</v>
       </c>
       <c r="N6">
-        <v>11.283288</v>
+        <v>2.415846</v>
       </c>
       <c r="O6">
-        <v>0.0791269219569728</v>
+        <v>0.03190146067032041</v>
       </c>
       <c r="P6">
-        <v>0.101699521197031</v>
+        <v>0.03835571766042516</v>
       </c>
       <c r="Q6">
-        <v>0.02766035368266667</v>
+        <v>0.005922312255333333</v>
       </c>
       <c r="R6">
-        <v>0.248943183144</v>
+        <v>0.053300810298</v>
       </c>
       <c r="S6">
-        <v>0.01024745705695338</v>
+        <v>0.03190146067032041</v>
       </c>
       <c r="T6">
-        <v>0.01317075718863417</v>
+        <v>0.03835571766042516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.022063</v>
       </c>
       <c r="I7">
-        <v>0.1295065801058922</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.1295065801058921</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.046790666666667</v>
+        <v>2.179548333333333</v>
       </c>
       <c r="N7">
-        <v>9.140372000000001</v>
+        <v>6.538645000000001</v>
       </c>
       <c r="O7">
-        <v>0.06409917941487439</v>
+        <v>0.08634338708042119</v>
       </c>
       <c r="P7">
-        <v>0.08238480272441405</v>
+        <v>0.1038122552107008</v>
       </c>
       <c r="Q7">
-        <v>0.02240711415955556</v>
+        <v>0.01602912495944445</v>
       </c>
       <c r="R7">
-        <v>0.201664027436</v>
+        <v>0.144262124635</v>
       </c>
       <c r="S7">
-        <v>0.008301265513614384</v>
+        <v>0.08634338708042119</v>
       </c>
       <c r="T7">
-        <v>0.01066937405353745</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.049433</v>
-      </c>
-      <c r="H8">
-        <v>0.148299</v>
-      </c>
-      <c r="I8">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J8">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.4984935</v>
-      </c>
-      <c r="N8">
-        <v>12.996987</v>
-      </c>
-      <c r="O8">
-        <v>0.136717006960842</v>
-      </c>
-      <c r="P8">
-        <v>0.1171455833533661</v>
-      </c>
-      <c r="Q8">
-        <v>0.3212400291855</v>
-      </c>
-      <c r="R8">
-        <v>1.927440175113</v>
-      </c>
-      <c r="S8">
-        <v>0.1190112549470299</v>
-      </c>
-      <c r="T8">
-        <v>0.101974459478762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.049433</v>
-      </c>
-      <c r="H9">
-        <v>0.148299</v>
-      </c>
-      <c r="I9">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J9">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.026004999999999</v>
-      </c>
-      <c r="N9">
-        <v>21.078015</v>
-      </c>
-      <c r="O9">
-        <v>0.1478149319518301</v>
-      </c>
-      <c r="P9">
-        <v>0.189982213808939</v>
-      </c>
-      <c r="Q9">
-        <v>0.347316505165</v>
-      </c>
-      <c r="R9">
-        <v>3.125848546485</v>
-      </c>
-      <c r="S9">
-        <v>0.1286719256261634</v>
-      </c>
-      <c r="T9">
-        <v>0.1653782670175969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.049433</v>
-      </c>
-      <c r="H10">
-        <v>0.148299</v>
-      </c>
-      <c r="I10">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J10">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.048527</v>
-      </c>
-      <c r="N10">
-        <v>6.145581</v>
-      </c>
-      <c r="O10">
-        <v>0.04309744714193724</v>
-      </c>
-      <c r="P10">
-        <v>0.05539188977340388</v>
-      </c>
-      <c r="Q10">
-        <v>0.101264835191</v>
-      </c>
-      <c r="R10">
-        <v>0.9113835167190001</v>
-      </c>
-      <c r="S10">
-        <v>0.03751604415129049</v>
-      </c>
-      <c r="T10">
-        <v>0.0482182755632478</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.049433</v>
-      </c>
-      <c r="H11">
-        <v>0.148299</v>
-      </c>
-      <c r="I11">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J11">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>25.151532</v>
-      </c>
-      <c r="N11">
-        <v>50.303064</v>
-      </c>
-      <c r="O11">
-        <v>0.5291445125735433</v>
-      </c>
-      <c r="P11">
-        <v>0.453395989142846</v>
-      </c>
-      <c r="Q11">
-        <v>1.243315681356</v>
-      </c>
-      <c r="R11">
-        <v>7.459894088136001</v>
-      </c>
-      <c r="S11">
-        <v>0.4606168163683445</v>
-      </c>
-      <c r="T11">
-        <v>0.3946782251552278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.049433</v>
-      </c>
-      <c r="H12">
-        <v>0.148299</v>
-      </c>
-      <c r="I12">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J12">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.761096</v>
-      </c>
-      <c r="N12">
-        <v>11.283288</v>
-      </c>
-      <c r="O12">
-        <v>0.0791269219569728</v>
-      </c>
-      <c r="P12">
-        <v>0.101699521197031</v>
-      </c>
-      <c r="Q12">
-        <v>0.185922258568</v>
-      </c>
-      <c r="R12">
-        <v>1.673300327112</v>
-      </c>
-      <c r="S12">
-        <v>0.06887946490001942</v>
-      </c>
-      <c r="T12">
-        <v>0.08852876400839679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.049433</v>
-      </c>
-      <c r="H13">
-        <v>0.148299</v>
-      </c>
-      <c r="I13">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="J13">
-        <v>0.8704934198941079</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.046790666666667</v>
-      </c>
-      <c r="N13">
-        <v>9.140372000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.06409917941487439</v>
-      </c>
-      <c r="P13">
-        <v>0.08238480272441405</v>
-      </c>
-      <c r="Q13">
-        <v>0.1506120030253334</v>
-      </c>
-      <c r="R13">
-        <v>1.355508027228</v>
-      </c>
-      <c r="S13">
-        <v>0.05579791390126001</v>
-      </c>
-      <c r="T13">
-        <v>0.0717154286708766</v>
+        <v>0.1038122552107008</v>
       </c>
     </row>
   </sheetData>
